--- a/quadrants.xlsx
+++ b/quadrants.xlsx
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="3">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="5">
@@ -638,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="6">
@@ -676,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="7">
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="8">
@@ -752,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="9">
@@ -790,7 +790,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="10">
@@ -828,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="11">
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="12">
@@ -904,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="13">
@@ -942,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="14">
@@ -980,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="15">
@@ -1018,27 +1018,33 @@
         <v>20</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>45685.67899628597</v>
+        <v>45685.69180162037</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>first order</t>
+          <t>done</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_onder_array</t>
+          <t>XLS_3_80_BOTTOM_boven_array</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1047,118 +1053,150 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>first order</t>
+          <t>done</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_onder_array</t>
+          <t>XLS_3_40_T_LAT_onder_fini</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>first order</t>
+          <t>done</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_onder_array</t>
+          <t>MOTOR_CNC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>first order</t>
+          <t>done</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_onder_array</t>
+          <t>MOTOR_CNC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>first order</t>
+          <t>done</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_boven_array</t>
+          <t>XLS_3_80_TOP_onder_array</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
         <v>5</v>
@@ -1167,358 +1205,454 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>first order</t>
+          <t>done</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>XLS_3_40_BOTTOM_onder</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>XLS_3_40_BOTTOM_onder</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>30</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>XLS_3_40_TOP_boven</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>XLS_3_60_TOP_boven</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>XLS_3_60_BOTTOM_onder</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>XLS_3_60_BOTTOM_onder</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>30</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>XLS_3_80_BOTTOM_onder</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>30</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>XLS_3_80_BOTTOM_onder</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>30</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>XLS_3_120_TOP_boven</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>XLS_3_120_BOTTOM_onder</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>30</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>XLS_3_40_BOTTOM_boven_array</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="E31" t="n">
         <v>5</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F31" t="n">
         <v>90</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G31" t="n">
         <v>5</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>XLS_3_40_BOTTOM_boven_array</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>90</v>
-      </c>
-      <c r="G22" t="n">
-        <v>5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>XLS_3_80_BOTTOM_boven_array</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>5</v>
-      </c>
-      <c r="F23" t="n">
-        <v>90</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>XLS_3_40_BOTTOM_boven_array</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>90</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>XLS_3_40_BOTTOM_boven_array</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>5</v>
-      </c>
-      <c r="F25" t="n">
-        <v>90</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>XLS_3_40_TOP_onder_array</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>45</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>XLS_3_40_T_LAT_onder_fini</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>40</v>
-      </c>
-      <c r="F27" t="n">
-        <v>20</v>
-      </c>
-      <c r="G27" t="n">
-        <v>20</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>20</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>MOTOR_CNC</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>10</v>
-      </c>
-      <c r="F28" t="n">
-        <v>60</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>MOTOR_CNC</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>10</v>
-      </c>
-      <c r="F29" t="n">
-        <v>60</v>
-      </c>
-      <c r="G29" t="n">
-        <v>10</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>MOTOR_CNC</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>10</v>
-      </c>
-      <c r="F30" t="n">
-        <v>60</v>
-      </c>
-      <c r="G30" t="n">
-        <v>10</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>MOTOR_CNC</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>10</v>
-      </c>
-      <c r="F31" t="n">
-        <v>60</v>
-      </c>
-      <c r="G31" t="n">
-        <v>10</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>first order</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>XLS_3_80_TOP_onder_array</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -1527,127 +1661,153 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>first order</t>
+          <t>done</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>XLS_3_80_TOP_boven</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>XLS_3_40_TOP_onder_array</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="E34" t="n">
         <v>5</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F34" t="n">
         <v>45</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>5</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>unlocked</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>30</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>unlocked</t>
+          <t>done</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_onder_array</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>45685.6993536463</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>unlocked</t>
+          <t>first order</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_TOP_onder_array</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J36" t="inlineStr"/>
     </row>
@@ -1656,28 +1816,28 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>unlocked</t>
+          <t>first order</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_onder_array</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J37" t="inlineStr"/>
     </row>
@@ -1686,28 +1846,28 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>unlocked</t>
+          <t>first order</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>MOTOR_CNC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G38" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J38" t="inlineStr"/>
     </row>
@@ -1716,28 +1876,28 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>unlocked</t>
+          <t>first order</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_onder_array</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J39" t="inlineStr"/>
     </row>
@@ -1746,28 +1906,28 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>unlocked</t>
+          <t>first order</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_boven_array</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J40" t="inlineStr"/>
     </row>
@@ -1776,28 +1936,28 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>unlocked</t>
+          <t>first order</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_boven_array</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J41" t="inlineStr"/>
     </row>
@@ -1806,28 +1966,28 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>unlocked</t>
+          <t>first order</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_boven_array</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J42" t="inlineStr"/>
     </row>
@@ -1836,28 +1996,28 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>unlocked</t>
+          <t>first order</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>MOTOR_CNC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J43" t="inlineStr"/>
     </row>
@@ -1866,28 +2026,28 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>unlocked</t>
+          <t>first order</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_onder_array</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J44" t="inlineStr"/>
     </row>
@@ -1901,17 +2061,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
         <v>2</v>
@@ -1931,17 +2091,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H46" t="n">
         <v>2</v>
@@ -1961,7 +2121,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>XLS_3_60_TOP_boven</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1991,7 +2151,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>XLS_3_60_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2021,7 +2181,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>XLS_3_60_TOP_boven</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2051,7 +2211,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>XLS_3_60_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2081,7 +2241,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>XLS_3_80_TOP_boven</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2141,7 +2301,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>XLS_3_80_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2171,7 +2331,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>XLS_3_80_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2201,17 +2361,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>XLS_3_80_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -2231,7 +2391,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>XLS_3_80_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2291,17 +2451,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>XLS_3_120_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>2</v>
@@ -2321,7 +2481,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>XLS_3_120_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2351,17 +2511,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -2381,17 +2541,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>2</v>
@@ -2411,20 +2571,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>XLS_3_80_TOP_boven</t>
+          <t>XLS_3_60_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -2441,20 +2601,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_60_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -2464,17 +2624,21 @@
     <row r="64">
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_60_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2490,10 +2654,14 @@
     <row r="65">
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_80_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2506,7 +2674,7 @@
         <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -2516,10 +2684,14 @@
     <row r="66">
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_80_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2542,17 +2714,21 @@
     <row r="67">
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_80_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E67" t="n">
         <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2568,23 +2744,27 @@
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_80_TOP_boven</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F68" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -2594,23 +2774,27 @@
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_80_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -2620,23 +2804,27 @@
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -2646,23 +2834,27 @@
     <row r="71">
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -2672,23 +2864,27 @@
     <row r="72">
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -2698,23 +2894,27 @@
     <row r="73">
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -2724,23 +2924,27 @@
     <row r="74">
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -2750,23 +2954,27 @@
     <row r="75">
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -2776,23 +2984,27 @@
     <row r="76">
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -2802,23 +3014,27 @@
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -2828,23 +3044,27 @@
     <row r="78">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -2854,23 +3074,27 @@
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -2880,23 +3104,27 @@
     <row r="80">
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -2906,23 +3134,27 @@
     <row r="81">
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -2932,20 +3164,24 @@
     <row r="82">
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G82" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>2</v>
@@ -2958,23 +3194,27 @@
     <row r="83">
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -2984,23 +3224,27 @@
     <row r="84">
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_60_TOP_boven</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F84" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -3010,17 +3254,21 @@
     <row r="85">
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_120_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E85" t="n">
         <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3036,20 +3284,24 @@
     <row r="86">
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G86" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>2</v>
@@ -3062,23 +3314,27 @@
     <row r="87">
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_80_TOP_boven</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -3088,23 +3344,27 @@
     <row r="88">
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_80_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -3114,23 +3374,27 @@
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3140,7 +3404,11 @@
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>XLS_3_40_TOP_boven</t>
@@ -3166,23 +3434,27 @@
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_80_TOP_boven</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -3192,23 +3464,27 @@
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -3218,17 +3494,21 @@
     <row r="93">
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E93" t="n">
         <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -3244,23 +3524,27 @@
     <row r="94">
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G94" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3270,17 +3554,21 @@
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E95" t="n">
         <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -3296,23 +3584,27 @@
     <row r="96">
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -3322,23 +3614,27 @@
     <row r="97">
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -3348,7 +3644,11 @@
     <row r="98">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>XLS_3_40_TOP_boven</t>
@@ -3374,23 +3674,27 @@
     <row r="99">
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F99" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -3400,23 +3704,27 @@
     <row r="100">
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_120_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E100" t="n">
         <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -3429,20 +3737,20 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E101" t="n">
         <v>3</v>
       </c>
       <c r="F101" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -3455,20 +3763,20 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -3481,7 +3789,7 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3494,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -3507,7 +3815,7 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3520,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -3533,20 +3841,20 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E105" t="n">
         <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -3559,20 +3867,20 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -3637,20 +3945,20 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -3663,14 +3971,14 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E110" t="n">
         <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -3689,20 +3997,20 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G111" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -3715,14 +4023,14 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E112" t="n">
         <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -3741,7 +4049,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3754,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="H113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -3767,20 +4075,20 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -3819,20 +4127,20 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G116" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -3845,7 +4153,7 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -3858,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -3871,20 +4179,20 @@
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E118" t="n">
         <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
       </c>
       <c r="H118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -3897,20 +4205,20 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -3923,20 +4231,20 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E120" t="n">
         <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -3949,20 +4257,20 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -4027,20 +4335,20 @@
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F124" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -4053,14 +4361,14 @@
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E125" t="n">
         <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4079,20 +4387,20 @@
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -4105,14 +4413,14 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E127" t="n">
         <v>3</v>
       </c>
       <c r="F127" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -4131,7 +4439,7 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4144,7 +4452,7 @@
         <v>2</v>
       </c>
       <c r="H128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -4157,20 +4465,20 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F129" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -4209,20 +4517,20 @@
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -4235,7 +4543,7 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -4248,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -4261,20 +4569,20 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E133" t="n">
         <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
       </c>
       <c r="H133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -4287,20 +4595,20 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -4313,20 +4621,20 @@
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E135" t="n">
         <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -4339,20 +4647,20 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F136" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G136" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -4417,20 +4725,20 @@
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -4443,14 +4751,14 @@
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E140" t="n">
         <v>3</v>
       </c>
       <c r="F140" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -4469,20 +4777,20 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G141" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -4495,14 +4803,14 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E142" t="n">
         <v>3</v>
       </c>
       <c r="F142" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -4521,7 +4829,7 @@
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -4534,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="H143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -4547,20 +4855,20 @@
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -4599,20 +4907,20 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G146" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -4625,7 +4933,7 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -4638,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -4651,20 +4959,20 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E148" t="n">
         <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
       </c>
       <c r="H148" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -4677,20 +4985,20 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F149" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -4703,20 +5011,20 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E150" t="n">
         <v>3</v>
       </c>
       <c r="F150" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -4729,20 +5037,20 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G151" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -4755,20 +5063,20 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F152" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -4781,7 +5089,7 @@
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -4794,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="H153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -4807,20 +5115,20 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F154" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -4937,20 +5245,20 @@
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F159" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -4963,20 +5271,20 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F160" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -4989,20 +5297,20 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F161" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G161" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -5015,7 +5323,7 @@
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -5028,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -5041,20 +5349,20 @@
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E163" t="n">
         <v>3</v>
       </c>
       <c r="F163" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -5067,17 +5375,17 @@
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F164" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H164" t="n">
         <v>2</v>
@@ -5093,14 +5401,14 @@
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E165" t="n">
         <v>3</v>
       </c>
       <c r="F165" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -5119,20 +5427,20 @@
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F166" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G166" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -5145,14 +5453,14 @@
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E167" t="n">
         <v>3</v>
       </c>
       <c r="F167" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -5171,20 +5479,20 @@
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F168" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -5197,20 +5505,20 @@
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F169" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -5223,20 +5531,20 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E170" t="n">
         <v>3</v>
       </c>
       <c r="F170" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -5249,20 +5557,20 @@
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_boven</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F171" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G171" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -5275,20 +5583,20 @@
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F172" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -5301,7 +5609,7 @@
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>XLS_3_40_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -5314,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="H173" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -5327,20 +5635,20 @@
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>XLS_3_40_BOTTOM_onder</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F174" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -6809,20 +7117,20 @@
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>XLS_3_60_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F231" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -6835,7 +7143,7 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>XLS_3_60_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -6848,7 +7156,7 @@
         <v>2</v>
       </c>
       <c r="H232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -6861,20 +7169,20 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>XLS_3_60_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E233" t="n">
         <v>3</v>
       </c>
       <c r="F233" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -6887,20 +7195,20 @@
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>XLS_3_60_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F234" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -6913,20 +7221,20 @@
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>XLS_3_60_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E235" t="n">
         <v>3</v>
       </c>
       <c r="F235" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
       </c>
       <c r="H235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -6939,20 +7247,20 @@
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>XLS_3_60_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_TOP_boven</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F236" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -6965,7 +7273,7 @@
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>XLS_3_80_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -6991,7 +7299,7 @@
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>XLS_3_80_TOP_zij_masscomp_2</t>
+          <t>XLS_3_40_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -7017,20 +7325,20 @@
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>XLS_3_80_BOTTOM_zij_preload</t>
+          <t>XLS_3_40_BOTTOM_onder</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F239" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -7043,14 +7351,14 @@
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>XLS_3_80_TOP_zij_masscomp_1</t>
+          <t>XLS_3_40_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E240" t="n">
         <v>3</v>
       </c>
       <c r="F240" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -7069,7 +7377,7 @@
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>XLS_3_80_TOP_zij_masscomp_2</t>
+          <t>XLS_3_60_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -7095,14 +7403,14 @@
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>XLS_3_80_BOTTOM_zij_preload</t>
+          <t>XLS_3_60_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E242" t="n">
         <v>3</v>
       </c>
       <c r="F242" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -7121,7 +7429,7 @@
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>XLS_3_80_TOP_zij_masscomp_1</t>
+          <t>XLS_3_60_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -7134,7 +7442,7 @@
         <v>2</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -7173,14 +7481,14 @@
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>XLS_3_80_BOTTOM_zij_preload</t>
+          <t>XLS_3_80_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E245" t="n">
         <v>3</v>
       </c>
       <c r="F245" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -7199,20 +7507,20 @@
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>XLS_3_80_TOP_boven</t>
+          <t>XLS_3_80_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F246" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G246" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -7277,20 +7585,20 @@
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>XLS_3_80_BOTTOM_onder</t>
+          <t>XLS_3_80_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F249" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -7303,14 +7611,14 @@
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>XLS_3_80_BOTTOM_zij_preload</t>
+          <t>XLS_3_80_TOP_zij_masscomp_1</t>
         </is>
       </c>
       <c r="E250" t="n">
         <v>3</v>
       </c>
       <c r="F250" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -7329,7 +7637,7 @@
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>XLS_3_120_TOP_zij_masscomp_1</t>
+          <t>XLS_3_80_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -7342,7 +7650,7 @@
         <v>2</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -7355,20 +7663,20 @@
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
-          <t>XLS_3_120_TOP_zij_masscomp_2</t>
+          <t>XLS_3_80_BOTTOM_zij_preload</t>
         </is>
       </c>
       <c r="E252" t="n">
         <v>3</v>
       </c>
       <c r="F252" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
       </c>
       <c r="H252" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -7381,20 +7689,20 @@
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
-          <t>XLS_3_120_BOTTOM_zij_preload</t>
+          <t>XLS_3_120_TOP_zij_masscomp_2</t>
         </is>
       </c>
       <c r="E253" t="n">
         <v>3</v>
       </c>
       <c r="F253" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
